--- a/data_xlsx/期货收盘价(活跃合约)_COMEX铜.xlsx
+++ b/data_xlsx/期货收盘价(活跃合约)_COMEX铜.xlsx
@@ -27346,8 +27346,184 @@
         <v>3.9245</v>
       </c>
     </row>
+    <row r="3409">
+      <c r="A3409" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3409" s="2" t="n">
+        <v>3.903</v>
+      </c>
+    </row>
     <row r="3410">
-      <c r="A3410" s="3" t="inlineStr">
+      <c r="A3410" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3410" s="2" t="n">
+        <v>3.847</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3411" s="2" t="n">
+        <v>3.933</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3412" s="2" t="n">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3413" s="2" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3414" s="2" t="n">
+        <v>3.8445</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3415" s="2" t="n">
+        <v>3.897</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3416" s="2" t="n">
+        <v>3.847</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3417" s="2" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3418" s="2" t="n">
+        <v>3.7795</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3419" s="2" t="n">
+        <v>3.7855</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3420" s="2" t="n">
+        <v>3.756</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3421" s="2" t="n">
+        <v>3.719</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3422" s="2" t="n">
+        <v>3.728</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3423" s="2" t="n">
+        <v>3.659</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3424" s="2" t="n">
+        <v>3.648</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3425" s="2" t="n">
+        <v>3.6865</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3426" s="2" t="n">
+        <v>3.7205</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3427" s="2" t="n">
+        <v>3.7205</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3428" s="2" t="n">
+        <v>3.7575</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3429" s="2" t="n">
+        <v>3.8105</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3430" s="2" t="n">
+        <v>3.769</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
